--- a/TestCase/Baihe_Login.xlsx
+++ b/TestCase/Baihe_Login.xlsx
@@ -1,22 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27417"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xu/xuWork/AutoTestInterface/TestCase/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="14660"/>
   </bookViews>
   <sheets>
     <sheet name="Baihe_Login" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -26,11 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>code=200
-apver=7.4.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>get/post</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -39,26 +47,46 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://plus.app.baihe.com/register/login?traceID=1&amp;systemID=2&amp;params={"mobile":"13716927954","password":"qqqqqqqq","appId":"1","plusPhoneModel":"Xiaomi-MI 4W","plusChannel":"baihe_android_bhw_y","device":"864895021559263","appUpgradeVersionCode":76,"plusClientVersion":"7.4.0","apver":"7.4.0","plusCode":"0001","plusPhoneOSVersion":"4.4.4","plusPlatform":"1202","channel":""}</t>
+    <t>http://plus.app.baihe.com/register/login?traceID=1&amp;systemID=2&amp;params={"mobile":"15198067024","password":"111111","appId":"1","plusPhoneModel":"Xiaomi-MI 4W","plusChannel":"baihe_android_bhw_y","device":"864895021559263","appUpgradeVersionCode":76,"plusClientVersion":"7.4.0","apver":"7.4.0","plusCode":"0001","plusPhoneOSVersion":"4.4.4","plusPlatform":"1202","channel":""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://plus.app.baihe.com/register/login?traceID=1&amp;systemID=2&amp;params={"mobile":"13716927954","password":"qqqqqqqq","appId":"1","plusPhoneModel":"Xiaomi-A1:C3 4W","plusChannel":"baihe_android_bhw_y","device":"864895021559263","appUpgradeVersionCode":76,"plusClientVersion":"7.4.0","apver":"7.4.0","plusCode":"0001","plusPhoneOSVersion":"4.4.4","plusPlatform":"1202","channel":""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'code': 200, 'msg': '', 'data': {'result': {'nickname': '果冻', 'headPhotoUrl': 'http://photo1.baihe.com/2017/04/07/120_150/B3AE9942800248B46C36FAD3DF6F2BB5.jpg', 'gender': '1', 'age': 28, 'accountStatus': '1', 'marriage': '1', 'marriageChn': '未婚', 'country': '86', 'countryChn': '中国', 'province': '8611', 'provinceChn': '北京市', 'city': '861101', 'cityChn': '北京东城', 'district': '861101', 'districtChn': '北京东城', 'income': '7', 'incomeChn': '10000-15000', 'isCreditedByAuth': '1', 'isCreditedById5': '1', 'isCreditedByMobile': '1', 'userService': 170, 'education': '5', 'educationChn': '本科', 'height': '178', 'iFindOpPrefer': '10_01_01', 'prefer': '12_01_05,12_01_07,12_01_01,12_01_08,12_01_04,12_01_06,12_02_13', 'registerDate': '2015-08-05 14:24:45', 'longitude': '116.76881', 'latitude': '39.580155', 'extra': 'baihe', 'group_id': 170, 'birthday': '19890116', 'familyDescription': '幸福是什么呢？不就是两个人牵手偕老过一辈子吗？我已经准备好迎接心爱的人，期待你的出现，快快给我发信吧！你好你好', 'hongdou': 338, 'photosNumber': '1', 'dataIntegrity': '100', 'hasMainPhoto': '1', 'userID': '124141212', 'match': {'matchEducation': '1,2,3,4,5,6,7,8', 'matchIncome': '1,2,3,4,5,6,7,8,9,10,11,12', 'matchHousing': '1,2,3,4,5,6,7,8', 'matchMarriage': '1', 'matchChildren': '1,2,3,4', 'matchMinAge': '19', 'matchMaxAge': '26', 'matchMinHeight': '160', 'matchMaxHeight': '177', 'matchCountry': '86', 'matchCountryChn': '中国', 'matchProvince': '8611', 'matchProvinceChn': '北京市', 'matchCity': '', 'matchCityChn': '', 'matchDistrict': '', 'matchDistrictChn': ''}, 'housing': '3', 'housingChn': '租房', 'children': '1', 'childrenChn': '没有', 'loveType': '3', 'loveTypeChn': '记者型', 'isCreditedBySesame': '1', 'headPhotoStatus': 1}, 'other': 0, 'apver': '7.4.0'}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'code': 200, 'msg': '', 'data': {'result': {'nickname': '阿狸到莱呵呵', 'headPhotoUrl': 'http://photo11.baihe.com/2016/03/29/120_150/B05D51F18D35BC0F140D180A7ED5159D.jpg', 'gender': '0', 'age': 30, 'accountStatus': '1', 'marriage': '1', 'marriageChn': '未婚', 'country': '86', 'countryChn': '中国', 'province': '8611', 'provinceChn': '北京市', 'city': '861105', 'cityChn': '北京朝阳', 'district': '861105', 'districtChn': '北京朝阳', 'income': '11', 'incomeChn': '30000-50000', 'isCreditedByAuth': '0', 'isCreditedById5': '0', 'isCreditedByMobile': '1', 'userService': 114, 'education': '5', 'educationChn': '本科', 'height': '170', 'iFindOpPrefer': '', 'prefer': '10_01_02,10_01_11,10_01_12,10_02_16,10_02_13,11_01_01,11_03_16,11_02_08,12_01_08,12_01_04', 'registerDate': '2015-10-14 15:01:26', 'longitude': '116.481231282552', 'latitude': '39.9960582139757', 'extra': 'baihe', 'group_id': 114, 'birthday': '19871023', 'familyDescription': '此号不用了！！！！！！！！！！！！！！！！', 'hongdou': 108, 'photosNumber': '1', 'dataIntegrity': '64', 'hasMainPhoto': '1', 'userID': '126784246', 'match': {'matchEducation': '1,2,3,4,5,6,7,8', 'matchIncome': '1,2,3,4,5,6,7,8,9,10,11,12', 'matchHousing': '1,2,3,4,5,6,7,8', 'matchMarriage': '1,2,3', 'matchChildren': '1,2,3,4', 'matchMinAge': '18', 'matchMaxAge': '35', 'matchMinHeight': '144', 'matchMaxHeight': '210', 'matchCountry': '86', 'matchCountryChn': '中国', 'matchProvince': '8611', 'matchProvinceChn': '北京市', 'matchCity': '', 'matchCityChn': '', 'matchDistrict': '', 'matchDistrictChn': ''}, 'housing': '4', 'housingChn': '已购房(有贷款)', 'children': '2', 'childrenChn': '有，和我住一起', 'loveType': '1', 'loveTypeChn': '哲学家型', 'isCreditedBySesame': '0', 'headPhotoStatus': 1}, 'other': 0, 'apver': '7.4.0'}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常账号登录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -73,10 +101,11 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <color theme="11"/>
+      <name val="DengXian"/>
+      <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -96,13 +125,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
@@ -112,16 +147,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -168,12 +210,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -200,14 +242,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -234,6 +277,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -409,57 +453,66 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="71.125" customWidth="1"/>
-    <col min="3" max="3" width="31.75" customWidth="1"/>
+    <col min="3" max="3" width="114.6640625" customWidth="1"/>
+    <col min="4" max="4" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="127" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" ht="94.5">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:4" ht="154" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="94.5">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3"/>
-    <hyperlink ref="B2"/>
+    <hyperlink ref="C3" display="http://plus.app.baihe.com/register/login?traceID=1&amp;systemID=2&amp;params={&quot;mobile&quot;:&quot;13716927954&quot;,&quot;password&quot;:&quot;qqqqqqqq&quot;,&quot;appId&quot;:&quot;1&quot;,&quot;plusPhoneModel&quot;:&quot;Xiaomi-MI 4W&quot;,&quot;plusChannel&quot;:&quot;baihe_android_bhw_y&quot;,&quot;device&quot;:&quot;864895021559263&quot;,&quot;appUpgradeVersionCode&quot;:76,&quot;plusC"/>
+    <hyperlink ref="C2" display="http://plus.app.baihe.com/register/login?traceID=1&amp;systemID=2&amp;params={&quot;mobile&quot;:&quot;13716927954&quot;,&quot;password&quot;:&quot;qqqqqqqq&quot;,&quot;appId&quot;:&quot;1&quot;,&quot;plusPhoneModel&quot;:&quot;Xiaomi-MI 4W&quot;,&quot;plusChannel&quot;:&quot;baihe_android_bhw_y&quot;,&quot;device&quot;:&quot;864895021559263&quot;,&quot;appUpgradeVersionCode&quot;:76,&quot;plusC"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -467,12 +520,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -481,12 +534,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TestCase/Baihe_Login.xlsx
+++ b/TestCase/Baihe_Login.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,35 +47,37 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>case</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常账号登录（男）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常账号登录（女）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://plus.app.baihe.com/register/login?traceID=1&amp;systemID=2&amp;params={"mobile":"13716927954","password":"qqqqqqqq","appId":"1","plusPhoneModel":"Xiaomi-A1:C3 4W","plusChannel":"baihe_android_bhw_y","device":"864895021559263","appUpgradeVersionCode":76,"plusClientVersion":"7.4.0","apver":"7.4.0","plusCode":"0001","plusPhoneOSVersion":"4.4.4","plusPlatform":"1202","channel":""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":200,"msg":"","data":{"result":{"nickname":"\u9b41\u661f\u697c","headPhotoUrl":"http:\/\/photo5.baihe.com\/2016\/04\/18\/120_150\/2B99494BE2721548164FBC7BDAA5B1AD.jpg","gender":"1","age":29,"accountStatus":"1","marriage":"1","marriageChn":"\u672a\u5a5a","country":"86","countryChn":"\u4e2d\u56fd","province":"8611","provinceChn":"\u5317\u4eac\u5e02","city":"861113","cityChn":"\u5317\u4eac\u660c\u5e73","district":"861113","districtChn":"\u5317\u4eac\u660c\u5e73","income":"7","incomeChn":"10000-15000","isCreditedByAuth":"0","isCreditedById5":"0","isCreditedByMobile":"1","userService":170,"education":"5","educationChn":"\u672c\u79d1","height":"178","iFindOpPrefer":"10_01_01","prefer":"10_02_16,10_01_01,12_01_05,12_01_07,12_01_09,12_01_01,12_01_08,12_01_04,12_01_12,13_01_12","registerDate":"2015-08-05 14:24:45","longitude":"116.48127468533","latitude":"39.9960161675347","extra":"baihe","group_id":170,"birthday":"19880525","familyDescription":"\u672a\u5b9e\u540d\u8ba4\u8bc1\uff0c\u65e0\u7167\u7247\u8005\u52ff\u6270\u2026\u2026 ","hongdou":47,"photosNumber":"2","dataIntegrity":"98","hasMainPhoto":"1","userID":"124141212","match":{"matchEducation":"4,5,6,7,8","matchIncome":"5,6,7,8,9,10,11,12","matchHousing":"1,2,3,4,5,6,7,8","matchMarriage":"1","matchChildren":"1","matchMinAge":"18","matchMaxAge":"28","matchMinHeight":"160","matchMaxHeight":"168","matchCountry":"86","matchCountryChn":"\u4e2d\u56fd","matchProvince":"8611","matchProvinceChn":"\u5317\u4eac\u5e02","matchCity":"","matchCityChn":"","matchDistrict":"","matchDistrictChn":""},"housing":"3","housingChn":"\u79df\u623f","children":"1","childrenChn":"\u6ca1\u6709","loveType":"13","loveTypeChn":"\u827a\u672f\u5bb6\u578b","isCreditedBySesame":"0","headPhotoStatus":"1"},"other":0,"apver":"7.4.0"}}</t>
+  </si>
+  <si>
     <t>http://plus.app.baihe.com/register/login?traceID=1&amp;systemID=2&amp;params={"mobile":"15198067024","password":"111111","appId":"1","plusPhoneModel":"Xiaomi-MI 4W","plusChannel":"baihe_android_bhw_y","device":"864895021559263","appUpgradeVersionCode":76,"plusClientVersion":"7.4.0","apver":"7.4.0","plusCode":"0001","plusPhoneOSVersion":"4.4.4","plusPlatform":"1202","channel":""}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://plus.app.baihe.com/register/login?traceID=1&amp;systemID=2&amp;params={"mobile":"13716927954","password":"qqqqqqqq","appId":"1","plusPhoneModel":"Xiaomi-A1:C3 4W","plusChannel":"baihe_android_bhw_y","device":"864895021559263","appUpgradeVersionCode":76,"plusClientVersion":"7.4.0","apver":"7.4.0","plusCode":"0001","plusPhoneOSVersion":"4.4.4","plusPlatform":"1202","channel":""}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'code': 200, 'msg': '', 'data': {'result': {'nickname': '果冻', 'headPhotoUrl': 'http://photo1.baihe.com/2017/04/07/120_150/B3AE9942800248B46C36FAD3DF6F2BB5.jpg', 'gender': '1', 'age': 28, 'accountStatus': '1', 'marriage': '1', 'marriageChn': '未婚', 'country': '86', 'countryChn': '中国', 'province': '8611', 'provinceChn': '北京市', 'city': '861101', 'cityChn': '北京东城', 'district': '861101', 'districtChn': '北京东城', 'income': '7', 'incomeChn': '10000-15000', 'isCreditedByAuth': '1', 'isCreditedById5': '1', 'isCreditedByMobile': '1', 'userService': 170, 'education': '5', 'educationChn': '本科', 'height': '178', 'iFindOpPrefer': '10_01_01', 'prefer': '12_01_05,12_01_07,12_01_01,12_01_08,12_01_04,12_01_06,12_02_13', 'registerDate': '2015-08-05 14:24:45', 'longitude': '116.76881', 'latitude': '39.580155', 'extra': 'baihe', 'group_id': 170, 'birthday': '19890116', 'familyDescription': '幸福是什么呢？不就是两个人牵手偕老过一辈子吗？我已经准备好迎接心爱的人，期待你的出现，快快给我发信吧！你好你好', 'hongdou': 338, 'photosNumber': '1', 'dataIntegrity': '100', 'hasMainPhoto': '1', 'userID': '124141212', 'match': {'matchEducation': '1,2,3,4,5,6,7,8', 'matchIncome': '1,2,3,4,5,6,7,8,9,10,11,12', 'matchHousing': '1,2,3,4,5,6,7,8', 'matchMarriage': '1', 'matchChildren': '1,2,3,4', 'matchMinAge': '19', 'matchMaxAge': '26', 'matchMinHeight': '160', 'matchMaxHeight': '177', 'matchCountry': '86', 'matchCountryChn': '中国', 'matchProvince': '8611', 'matchProvinceChn': '北京市', 'matchCity': '', 'matchCityChn': '', 'matchDistrict': '', 'matchDistrictChn': ''}, 'housing': '3', 'housingChn': '租房', 'children': '1', 'childrenChn': '没有', 'loveType': '3', 'loveTypeChn': '记者型', 'isCreditedBySesame': '1', 'headPhotoStatus': 1}, 'other': 0, 'apver': '7.4.0'}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'code': 200, 'msg': '', 'data': {'result': {'nickname': '阿狸到莱呵呵', 'headPhotoUrl': 'http://photo11.baihe.com/2016/03/29/120_150/B05D51F18D35BC0F140D180A7ED5159D.jpg', 'gender': '0', 'age': 30, 'accountStatus': '1', 'marriage': '1', 'marriageChn': '未婚', 'country': '86', 'countryChn': '中国', 'province': '8611', 'provinceChn': '北京市', 'city': '861105', 'cityChn': '北京朝阳', 'district': '861105', 'districtChn': '北京朝阳', 'income': '11', 'incomeChn': '30000-50000', 'isCreditedByAuth': '0', 'isCreditedById5': '0', 'isCreditedByMobile': '1', 'userService': 114, 'education': '5', 'educationChn': '本科', 'height': '170', 'iFindOpPrefer': '', 'prefer': '10_01_02,10_01_11,10_01_12,10_02_16,10_02_13,11_01_01,11_03_16,11_02_08,12_01_08,12_01_04', 'registerDate': '2015-10-14 15:01:26', 'longitude': '116.481231282552', 'latitude': '39.9960582139757', 'extra': 'baihe', 'group_id': 114, 'birthday': '19871023', 'familyDescription': '此号不用了！！！！！！！！！！！！！！！！', 'hongdou': 108, 'photosNumber': '1', 'dataIntegrity': '64', 'hasMainPhoto': '1', 'userID': '126784246', 'match': {'matchEducation': '1,2,3,4,5,6,7,8', 'matchIncome': '1,2,3,4,5,6,7,8,9,10,11,12', 'matchHousing': '1,2,3,4,5,6,7,8', 'matchMarriage': '1,2,3', 'matchChildren': '1,2,3,4', 'matchMinAge': '18', 'matchMaxAge': '35', 'matchMinHeight': '144', 'matchMaxHeight': '210', 'matchCountry': '86', 'matchCountryChn': '中国', 'matchProvince': '8611', 'matchProvinceChn': '北京市', 'matchCity': '', 'matchCityChn': '', 'matchDistrict': '', 'matchDistrictChn': ''}, 'housing': '4', 'housingChn': '已购房(有贷款)', 'children': '2', 'childrenChn': '有，和我住一起', 'loveType': '1', 'loveTypeChn': '哲学家型', 'isCreditedBySesame': '0', 'headPhotoStatus': 1}, 'other': 0, 'apver': '7.4.0'}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>case</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正常账号登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>{"code":200,"msg":"","data":{"result":{"nickname":"\u963f\u72f8\u5230\u83b1\u5475\u5475","headPhotoUrl":"http:\/\/photo5.baihe.com\/2016\/03\/29\/120_150\/B05D51F18D35BC0F140D180A7ED5159D.jpg","gender":"0","age":30,"accountStatus":"1","marriage":"1","marriageChn":"\u672a\u5a5a","country":"86","countryChn":"\u4e2d\u56fd","province":"8611","provinceChn":"\u5317\u4eac\u5e02","city":"861101","cityChn":"\u5317\u4eac\u4e1c\u57ce","district":"861101","districtChn":"\u5317\u4eac\u4e1c\u57ce","income":"10","incomeChn":"25000-30000","isCreditedByAuth":"1","isCreditedById5":"1","isCreditedByMobile":"1","userService":98,"education":"3","educationChn":"\u9ad8\u4e2d","height":"180","iFindOpPrefer":"","prefer":"10_01_02,10_01_12,10_01_07,11_01_04,11_02_12,12_01_05,12_01_03,12_01_04,13_02_17","registerDate":"2015-10-14 15:01:26","longitude":"116.481271972656","latitude":"39.9960199652778","extra":"baihe","group_id":98,"birthday":"19871023","familyDescription":"\u65e0\u5b9e\u540d\u8ba4\u8bc1\uff0c\u65e0\u624b\u673a\u8ba4\u8bc1\uff0c\u65e0\u7167\u7247 \u52ff\u6270 \r\n\uff01\uff01\uff01\uff01\u5475\u5475\n\u83dc\u554a\u554a\u554a\n\u8c01\n\u662f\u8c01\n\u53c8\u662f\u8c01","hongdou":"","photosNumber":"0","dataIntegrity":"57","hasMainPhoto":"1","userID":"126784246","match":{"matchEducation":"1,2,3,4,5,6,7,8","matchIncome":"1,2,3,4,5,6,7,8","matchHousing":"1,2,3,4,5,6,7,8","matchMarriage":"1,2,3","matchChildren":"1,2,3,4","matchMinAge":"22","matchMaxAge":"44","matchMinHeight":"144","matchMaxHeight":"196","matchCountry":"86","matchCountryChn":"\u4e2d\u56fd","matchProvince":"8611","matchProvinceChn":"\u5317\u4eac\u5e02","matchCity":"","matchCityChn":"","matchDistrict":"","matchDistrictChn":""},"housing":"4","housingChn":"\u5df2\u8d2d\u623f(\u6709\u8d37\u6b3e)","children":"2","childrenChn":"\u6709\uff0c\u548c\u6211\u4f4f\u4e00\u8d77","loveType":"1","loveTypeChn":"\u54f2\u5b66\u5bb6\u578b","isCreditedBySesame":"0","headPhotoStatus":"1"},"other":0,"apver":"7.4.0"}}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +98,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -106,6 +109,12 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="-webkit-standard"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -140,7 +149,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -148,6 +157,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -456,8 +468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -468,7 +480,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -482,30 +494,30 @@
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" ht="127" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="154" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/TestCase/Baihe_Login.xlsx
+++ b/TestCase/Baihe_Login.xlsx
@@ -59,25 +59,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://plus.app.baihe.com/register/login?traceID=1&amp;systemID=2&amp;params={"mobile":"13716927954","password":"qqqqqqqq","appId":"1","plusPhoneModel":"Xiaomi-A1:C3 4W","plusChannel":"baihe_android_bhw_y","device":"864895021559263","appUpgradeVersionCode":76,"plusClientVersion":"7.4.0","apver":"7.4.0","plusCode":"0001","plusPhoneOSVersion":"4.4.4","plusPlatform":"1202","channel":""}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"code":200,"msg":"","data":{"result":{"nickname":"\u9b41\u661f\u697c","headPhotoUrl":"http:\/\/photo5.baihe.com\/2016\/04\/18\/120_150\/2B99494BE2721548164FBC7BDAA5B1AD.jpg","gender":"1","age":29,"accountStatus":"1","marriage":"1","marriageChn":"\u672a\u5a5a","country":"86","countryChn":"\u4e2d\u56fd","province":"8611","provinceChn":"\u5317\u4eac\u5e02","city":"861113","cityChn":"\u5317\u4eac\u660c\u5e73","district":"861113","districtChn":"\u5317\u4eac\u660c\u5e73","income":"7","incomeChn":"10000-15000","isCreditedByAuth":"0","isCreditedById5":"0","isCreditedByMobile":"1","userService":170,"education":"5","educationChn":"\u672c\u79d1","height":"178","iFindOpPrefer":"10_01_01","prefer":"10_02_16,10_01_01,12_01_05,12_01_07,12_01_09,12_01_01,12_01_08,12_01_04,12_01_12,13_01_12","registerDate":"2015-08-05 14:24:45","longitude":"116.48127468533","latitude":"39.9960161675347","extra":"baihe","group_id":170,"birthday":"19880525","familyDescription":"\u672a\u5b9e\u540d\u8ba4\u8bc1\uff0c\u65e0\u7167\u7247\u8005\u52ff\u6270\u2026\u2026 ","hongdou":47,"photosNumber":"2","dataIntegrity":"98","hasMainPhoto":"1","userID":"124141212","match":{"matchEducation":"4,5,6,7,8","matchIncome":"5,6,7,8,9,10,11,12","matchHousing":"1,2,3,4,5,6,7,8","matchMarriage":"1","matchChildren":"1","matchMinAge":"18","matchMaxAge":"28","matchMinHeight":"160","matchMaxHeight":"168","matchCountry":"86","matchCountryChn":"\u4e2d\u56fd","matchProvince":"8611","matchProvinceChn":"\u5317\u4eac\u5e02","matchCity":"","matchCityChn":"","matchDistrict":"","matchDistrictChn":""},"housing":"3","housingChn":"\u79df\u623f","children":"1","childrenChn":"\u6ca1\u6709","loveType":"13","loveTypeChn":"\u827a\u672f\u5bb6\u578b","isCreditedBySesame":"0","headPhotoStatus":"1"},"other":0,"apver":"7.4.0"}}</t>
-  </si>
-  <si>
-    <t>http://plus.app.baihe.com/register/login?traceID=1&amp;systemID=2&amp;params={"mobile":"15198067024","password":"111111","appId":"1","plusPhoneModel":"Xiaomi-MI 4W","plusChannel":"baihe_android_bhw_y","device":"864895021559263","appUpgradeVersionCode":76,"plusClientVersion":"7.4.0","apver":"7.4.0","plusCode":"0001","plusPhoneOSVersion":"4.4.4","plusPlatform":"1202","channel":""}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"code":200,"msg":"","data":{"result":{"nickname":"\u963f\u72f8\u5230\u83b1\u5475\u5475","headPhotoUrl":"http:\/\/photo5.baihe.com\/2016\/03\/29\/120_150\/B05D51F18D35BC0F140D180A7ED5159D.jpg","gender":"0","age":30,"accountStatus":"1","marriage":"1","marriageChn":"\u672a\u5a5a","country":"86","countryChn":"\u4e2d\u56fd","province":"8611","provinceChn":"\u5317\u4eac\u5e02","city":"861101","cityChn":"\u5317\u4eac\u4e1c\u57ce","district":"861101","districtChn":"\u5317\u4eac\u4e1c\u57ce","income":"10","incomeChn":"25000-30000","isCreditedByAuth":"1","isCreditedById5":"1","isCreditedByMobile":"1","userService":98,"education":"3","educationChn":"\u9ad8\u4e2d","height":"180","iFindOpPrefer":"","prefer":"10_01_02,10_01_12,10_01_07,11_01_04,11_02_12,12_01_05,12_01_03,12_01_04,13_02_17","registerDate":"2015-10-14 15:01:26","longitude":"116.481271972656","latitude":"39.9960199652778","extra":"baihe","group_id":98,"birthday":"19871023","familyDescription":"\u65e0\u5b9e\u540d\u8ba4\u8bc1\uff0c\u65e0\u624b\u673a\u8ba4\u8bc1\uff0c\u65e0\u7167\u7247 \u52ff\u6270 \r\n\uff01\uff01\uff01\uff01\u5475\u5475\n\u83dc\u554a\u554a\u554a\n\u8c01\n\u662f\u8c01\n\u53c8\u662f\u8c01","hongdou":"","photosNumber":"0","dataIntegrity":"57","hasMainPhoto":"1","userID":"126784246","match":{"matchEducation":"1,2,3,4,5,6,7,8","matchIncome":"1,2,3,4,5,6,7,8","matchHousing":"1,2,3,4,5,6,7,8","matchMarriage":"1,2,3","matchChildren":"1,2,3,4","matchMinAge":"22","matchMaxAge":"44","matchMinHeight":"144","matchMaxHeight":"196","matchCountry":"86","matchCountryChn":"\u4e2d\u56fd","matchProvince":"8611","matchProvinceChn":"\u5317\u4eac\u5e02","matchCity":"","matchCityChn":"","matchDistrict":"","matchDistrictChn":""},"housing":"4","housingChn":"\u5df2\u8d2d\u623f(\u6709\u8d37\u6b3e)","children":"2","childrenChn":"\u6709\uff0c\u548c\u6211\u4f4f\u4e00\u8d77","loveType":"1","loveTypeChn":"\u54f2\u5b66\u5bb6\u578b","isCreditedBySesame":"0","headPhotoStatus":"1"},"other":0,"apver":"7.4.0"}}</t>
+    <t>http://plus.app.baihe.com/register/login?traceID=1&amp;systemID=2&amp;params={"mobile":"13716927954","password":"qqqqqqqq","appId":"1","plusPhoneModel":"Xiaomi-A1:C3 4W","plusChannel":"baihe_android_bhw_y","device":"864895021559263","appUpgradeVersionCode":76,"plusClientVersion":"7.4.0","apver":"7.6.0","plusCode":"0001","plusPhoneOSVersion":"4.4.4","plusPlatform":"1202","channel":""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://plus.app.baihe.com/register/login?traceID=1&amp;systemID=2&amp;params={"mobile":"15198067024","password":"111111","appId":"1","plusPhoneModel":"Xiaomi-MI 4W","plusChannel":"baihe_android_bhw_y","device":"864895021559263","appUpgradeVersionCode":76,"plusClientVersion":"7.4.0","apver":"7.6.0","plusCode":"0001","plusPhoneOSVersion":"4.4.4","plusPlatform":"1202","channel":""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":200,"nickname":"阿狸到莱呵呵","apver":"7.6.0","gender":"0"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":200,"nickname":"果冻","apver":"7.6.0","gender":"1"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,14 +94,6 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -134,40 +128,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -468,8 +454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -499,11 +485,11 @@
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="154" customHeight="1" x14ac:dyDescent="0.2">
@@ -513,19 +499,15 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="C3" display="http://plus.app.baihe.com/register/login?traceID=1&amp;systemID=2&amp;params={&quot;mobile&quot;:&quot;13716927954&quot;,&quot;password&quot;:&quot;qqqqqqqq&quot;,&quot;appId&quot;:&quot;1&quot;,&quot;plusPhoneModel&quot;:&quot;Xiaomi-MI 4W&quot;,&quot;plusChannel&quot;:&quot;baihe_android_bhw_y&quot;,&quot;device&quot;:&quot;864895021559263&quot;,&quot;appUpgradeVersionCode&quot;:76,&quot;plusC"/>
-    <hyperlink ref="C2" display="http://plus.app.baihe.com/register/login?traceID=1&amp;systemID=2&amp;params={&quot;mobile&quot;:&quot;13716927954&quot;,&quot;password&quot;:&quot;qqqqqqqq&quot;,&quot;appId&quot;:&quot;1&quot;,&quot;plusPhoneModel&quot;:&quot;Xiaomi-MI 4W&quot;,&quot;plusChannel&quot;:&quot;baihe_android_bhw_y&quot;,&quot;device&quot;:&quot;864895021559263&quot;,&quot;appUpgradeVersionCode&quot;:76,&quot;plusC"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>

--- a/TestCase/Baihe_Login.xlsx
+++ b/TestCase/Baihe_Login.xlsx
@@ -71,7 +71,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"code":200,"nickname":"果冻","apver":"7.6.0","gender":"1"}</t>
+    <t>{"code":200,"nickname":"果冻","apver":"7.6.0","gender":"0"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -455,7 +455,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
